--- a/testData/all.xlsx
+++ b/testData/all.xlsx
@@ -44,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'river':'长江流域','key':'9edad5e73a6e368b9e229954a1f71501'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水质量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,6 +74,10 @@
   </si>
   <si>
     <t>http://web.juhe.cn:8080/environment/water/river</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'river':'长江流域'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,7 +444,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -479,13 +479,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -513,16 +513,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
       <c r="E4">
         <v>200</v>
